--- a/medicine/Enfance/Affaire_Tania_Parnisari/Affaire_Tania_Parnisari.xlsx
+++ b/medicine/Enfance/Affaire_Tania_Parnisari/Affaire_Tania_Parnisari.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L’affaire Tania Parnisari est une affaire criminelle française dans laquelle Sophia Abid, 7 ans, a été asphyxiée, le 10 mars 2003, à Brunstatt par sa mère Tania Parnisari.
@@ -512,7 +524,9 @@
           <t>Faits et enquête</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Tania Parnisari a 28 ans au moment des faits. Elle a 3 enfants de deux pères différents : Michael et Sophia, qui sont les enfants de Raymond Abid, son mari depuis 8 ans. Camilla, la dernière, est la fille de l'amant de Tania. 
 Le 10 mars 2003, à Brunstatt en Alsace, Sophia est portée disparue après qu'elle n'est pas rentrée de l'école. Le lendemain, le 11 mars 2003, aux environs de 11 h, en contrebas d'une voie ferrée, les policiers découvrent son corps sans vie. Il ne porte aucune trace d'une quelconque agression sexuelle. La position fœtale dans laquelle est le corps de Sophia indique peut-être une noyade.
@@ -557,7 +571,9 @@
           <t>Procès et condamnation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Tania est mise en garde à vue huit jours après pour homicide volontaire sur mineure de moins de 15 ans.
 Deux jours plus tard, elle est mise en examen et transférée à la prison de Mulhouse.
